--- a/FileSheet_Ques10.2.xlsx
+++ b/FileSheet_Ques10.2.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Thao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Thao\Desktop\olap_cube_doanthuchanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A4D468-CB92-4BEF-8B8C-F40E02662B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEAA80B-2E8C-47A2-9DFE-71D44028086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620"/>
+    <workbookView xWindow="8730" yWindow="3400" windowWidth="19170" windowHeight="11250"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp8885" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp107B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId2"/>
+    <pivotCache cacheId="20" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Thanh Thao\AppData\Local\Temp\tmp8885.odc" keepAlive="1" name="DESKTOP-ASETP96\NGOTHANHTHAO Cube_Question10" type="5" refreshedVersion="7" background="1">
+  <connection id="1" odcFile="C:\Users\Thanh Thao\AppData\Local\Temp\tmp107B.odc" keepAlive="1" name="DESKTOP-ASETP96\NGOTHANHTHAO Cube_Question10" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Cube_Question10;Data Source=DESKTOP-ASETP96\NGOTHANHTHAO;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="QLBI 10 2 DDS" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,12 +32,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
-    <t>Row Labels</t>
+    <t>Number Of Accidents</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Daylight</t>
+  </si>
+  <si>
+    <t>Darkness - lights lit</t>
+  </si>
+  <si>
+    <t>Darkness - lights unlit</t>
+  </si>
+  <si>
+    <t>Darkness - no lighting</t>
+  </si>
+  <si>
+    <t>Darkness - lighting unknown</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
   <si>
     <t>Data missing or out of range</t>
@@ -46,13 +67,25 @@
     <t>Dry</t>
   </si>
   <si>
+    <t>Flood over 3cm. deep</t>
+  </si>
+  <si>
     <t>Frost or ice</t>
+  </si>
+  <si>
+    <t>Snow</t>
   </si>
   <si>
     <t>Wet or damp</t>
   </si>
   <si>
     <t>Fine no high winds</t>
+  </si>
+  <si>
+    <t>Fog or mist</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Raining no high winds</t>
@@ -64,34 +97,13 @@
     <t>Fine + high winds</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Fog or mist</t>
-  </si>
-  <si>
     <t>Raining + high winds</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>Snowing + high winds</t>
   </si>
   <si>
-    <t>Darkness - lighting unknown</t>
-  </si>
-  <si>
-    <t>Darkness - lights lit</t>
-  </si>
-  <si>
-    <t>Darkness - lights unlit</t>
-  </si>
-  <si>
-    <t>Darkness - no lighting</t>
-  </si>
-  <si>
-    <t>Daylight</t>
-  </si>
-  <si>
-    <t>Number Of Accidents</t>
+    <t>Snowing no high winds</t>
   </si>
 </sst>
 </file>
@@ -577,6 +589,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -584,7 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,28 +656,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Thanh Thao" refreshedDate="44543.187463310183" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Thanh Thao" refreshedDate="44552.023470138891" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
-    <cacheField name="[Dim Road Surface Conditions].[Description].[Description]" caption="Description" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="4">
-        <s v="[Dim Road Surface Conditions].[Description].&amp;[Data missing or out of range]" c="Data missing or out of range"/>
-        <s v="[Dim Road Surface Conditions].[Description].&amp;[Dry]" c="Dry"/>
-        <s v="[Dim Road Surface Conditions].[Description].&amp;[Frost or ice]" c="Frost or ice"/>
-        <s v="[Dim Road Surface Conditions].[Description].&amp;[Wet or damp]" c="Wet or damp"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Weather Conditions].[Description].[Description]" caption="Description" numFmtId="0" hierarchy="4" level="1">
-      <sharedItems count="7">
-        <s v="[Dim Weather Conditions].[Description].&amp;[Fine + high winds]" c="Fine + high winds"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Fine no high winds]" c="Fine no high winds"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Fog or mist]" c="Fog or mist"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Other]" c="Other"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Raining + high winds]" c="Raining + high winds"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Raining no high winds]" c="Raining no high winds"/>
-        <s v="[Dim Weather Conditions].[Description].&amp;[Unknown]" c="Unknown"/>
-      </sharedItems>
-    </cacheField>
+    <cacheField name="[Measures].[Number Of Accidents]" caption="Number Of Accidents" numFmtId="0" hierarchy="6" level="32767"/>
     <cacheField name="[Dim Light Condition].[Description].[Description]" caption="Description" numFmtId="0" level="1">
       <sharedItems count="5">
         <s v="[Dim Light Condition].[Description].&amp;[Darkness - lighting unknown]" c="Darkness - lighting unknown"/>
@@ -675,33 +669,55 @@
         <s v="[Dim Light Condition].[Description].&amp;[Daylight]" c="Daylight"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Number Of Accidents]" caption="Number Of Accidents" numFmtId="0" hierarchy="6" level="32767"/>
+    <cacheField name="[Dim Road Surface Conditions].[Description].[Description]" caption="Description" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="6">
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Data missing or out of range]" c="Data missing or out of range"/>
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Dry]" c="Dry"/>
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Flood over 3cm. deep]" c="Flood over 3cm. deep"/>
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Frost or ice]" c="Frost or ice"/>
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Snow]" c="Snow"/>
+        <s v="[Dim Road Surface Conditions].[Description].&amp;[Wet or damp]" c="Wet or damp"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Weather Conditions].[Description].[Description]" caption="Description" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="9">
+        <s v="[Dim Weather Conditions].[Description].&amp;[Fine + high winds]" c="Fine + high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Fine no high winds]" c="Fine no high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Fog or mist]" c="Fog or mist"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Other]" c="Other"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Raining + high winds]" c="Raining + high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Raining no high winds]" c="Raining no high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Snowing + high winds]" c="Snowing + high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Snowing no high winds]" c="Snowing no high winds"/>
+        <s v="[Dim Weather Conditions].[Description].&amp;[Unknown]" c="Unknown"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="8">
     <cacheHierarchy uniqueName="[Dim Light Condition].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Light Condition].[Description].[All]" allUniqueName="[Dim Light Condition].[Description].[All]" dimensionUniqueName="[Dim Light Condition]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Light Condition].[SK Light Condition]" caption="SK Light Condition" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Light Condition].[SK Light Condition].[All]" allUniqueName="[Dim Light Condition].[SK Light Condition].[All]" dimensionUniqueName="[Dim Light Condition]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Road Surface Conditions].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Road Surface Conditions].[Description].[All]" allUniqueName="[Dim Road Surface Conditions].[Description].[All]" dimensionUniqueName="[Dim Road Surface Conditions]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions]" caption="SK Road Surface Conditions" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions].[All]" allUniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions].[All]" dimensionUniqueName="[Dim Road Surface Conditions]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions]" caption="SK Road Surface Conditions" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions].[All]" allUniqueName="[Dim Road Surface Conditions].[SK Road Surface Conditions].[All]" dimensionUniqueName="[Dim Road Surface Conditions]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Weather Conditions].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Weather Conditions].[Description].[All]" allUniqueName="[Dim Weather Conditions].[Description].[All]" dimensionUniqueName="[Dim Weather Conditions]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Weather Conditions].[SK Weather Condition]" caption="SK Weather Condition" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Weather Conditions].[SK Weather Condition].[All]" allUniqueName="[Dim Weather Conditions].[SK Weather Condition].[All]" dimensionUniqueName="[Dim Weather Conditions]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Number Of Accidents]" caption="Number Of Accidents" measure="1" displayFolder="" measureGroup="Fact Table" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="3"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Fact Table Count]" caption="Fact Table Count" measure="1" displayFolder="" measureGroup="Fact Table" count="0"/>
@@ -730,28 +746,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:G24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:G59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="5">
         <item x="0"/>
@@ -761,13 +759,35 @@
         <item x="4"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="57">
     <i>
       <x/>
     </i>
@@ -775,10 +795,16 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="6"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="1"/>
@@ -790,22 +816,55 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
     </i>
     <i>
       <x v="3"/>
@@ -831,12 +890,78 @@
     <i r="1">
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </colFields>
   <colItems count="6">
     <i>
@@ -859,7 +984,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="8">
     <pivotHierarchy/>
@@ -1187,11 +1312,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1204,410 +1327,1167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9</v>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
-        <v>321</v>
-      </c>
-      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
-        <v>93</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1791</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="1">
+        <v>238</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1062</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19930</v>
+      </c>
+      <c r="D11" s="1">
+        <v>588</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4709</v>
+      </c>
+      <c r="F11" s="1">
+        <v>107147</v>
+      </c>
+      <c r="G11" s="1">
+        <v>134061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>108</v>
+      </c>
+      <c r="G12" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="C13" s="1">
+        <v>195</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>493</v>
+      </c>
+      <c r="G13" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>114</v>
+      </c>
+      <c r="G15" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4">
-        <v>12</v>
-      </c>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>168</v>
-      </c>
-      <c r="G18" s="4">
-        <v>237</v>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>362</v>
+      </c>
+      <c r="C18" s="1">
+        <v>497</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2179</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3096</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>421</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>420</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1405</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1">
+        <v>40</v>
+      </c>
+      <c r="G32" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>158</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>155</v>
+      </c>
+      <c r="F33" s="1">
+        <v>377</v>
+      </c>
+      <c r="G33" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
+      <c r="F36" s="1">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="C37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1">
+        <v>66</v>
+      </c>
+      <c r="G37" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
         <v>12</v>
       </c>
-      <c r="G20" s="4">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>27</v>
+      </c>
+      <c r="G38" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1">
+        <v>90</v>
+      </c>
+      <c r="G46" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1">
+        <v>177</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>87</v>
+      </c>
+      <c r="F47" s="1">
+        <v>323</v>
+      </c>
+      <c r="G47" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>226</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>108</v>
+      </c>
+      <c r="F50" s="1">
+        <v>554</v>
+      </c>
+      <c r="G50" s="1">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <v>292</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6389</v>
+      </c>
+      <c r="D51" s="1">
+        <v>172</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2525</v>
+      </c>
+      <c r="F51" s="1">
+        <v>15286</v>
+      </c>
+      <c r="G51" s="1">
+        <v>24664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>178</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>163</v>
+      </c>
+      <c r="F52" s="1">
+        <v>354</v>
+      </c>
+      <c r="G52" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>692</v>
+      </c>
+      <c r="D53" s="1">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1334</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1">
+        <v>978</v>
+      </c>
+      <c r="D54" s="1">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1">
+        <v>396</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="1">
+        <v>274</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6405</v>
+      </c>
+      <c r="D55" s="1">
+        <v>183</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1727</v>
+      </c>
+      <c r="F55" s="1">
+        <v>13718</v>
+      </c>
+      <c r="G55" s="1">
+        <v>22307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="4">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9</v>
-      </c>
-      <c r="G21" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4">
-        <v>105</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4">
-        <v>21</v>
-      </c>
-      <c r="F22" s="4">
-        <v>195</v>
-      </c>
-      <c r="G22" s="4">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>75</v>
-      </c>
-      <c r="C24" s="4">
-        <v>513</v>
-      </c>
-      <c r="D24" s="4">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4">
-        <v>144</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2238</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3000</v>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>25</v>
+      </c>
+      <c r="F57" s="1">
+        <v>123</v>
+      </c>
+      <c r="G57" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>49</v>
+      </c>
+      <c r="F58" s="1">
+        <v>396</v>
+      </c>
+      <c r="G58" s="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2916</v>
+      </c>
+      <c r="C59" s="1">
+        <v>37074</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1081</v>
+      </c>
+      <c r="E59" s="1">
+        <v>11019</v>
+      </c>
+      <c r="F59" s="1">
+        <v>147088</v>
+      </c>
+      <c r="G59" s="1">
+        <v>199178</v>
       </c>
     </row>
   </sheetData>
